--- a/examples/ex002.Interpolation2D.xlsx
+++ b/examples/ex002.Interpolation2D.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF63C67-9084-46A0-853C-CB0A6AF22FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B5DFD7-D376-47F6-8A3F-F4AC51BB2417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="1380" windowWidth="28770" windowHeight="17370" xr2:uid="{0F6AF6A5-E8D5-4D5B-9C77-42921EABD3C2}"/>
+    <workbookView xWindow="-34185" yWindow="4890" windowWidth="28800" windowHeight="15435" xr2:uid="{0F6AF6A5-E8D5-4D5B-9C77-42921EABD3C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Interp2D" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -614,15 +615,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,6 +649,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1042,187 +1043,14 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="mAL_idwint"/>
-      <sheetName val="mAL_lsfit"/>
-      <sheetName val="mAL_polint"/>
-      <sheetName val="mAL_ratint"/>
-      <sheetName val="mAL_spline1d"/>
-      <sheetName val="mAL_spline2d"/>
-      <sheetName val="mAL_spline3"/>
-      <sheetName val="m_CSpline"/>
-      <sheetName val="Index"/>
-      <sheetName val="Interpolate"/>
-      <sheetName val="Interp2D"/>
-      <sheetName val="Fit_Spline"/>
-      <sheetName val="Fit_Lin"/>
-      <sheetName val="Fit_Poly"/>
-      <sheetName val="Fit_NonLin"/>
-      <sheetName val="Integrate"/>
-      <sheetName val="Differentiate"/>
-      <sheetName val="Matrix"/>
-      <sheetName val="About"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10">
-        <row r="59">
-          <cell r="A59">
-            <v>1</v>
-          </cell>
-          <cell r="C59">
-            <v>1.1640000000000001E-2</v>
-          </cell>
-          <cell r="D59">
-            <v>1.1639999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>5</v>
-          </cell>
-          <cell r="C60">
-            <v>4.9895653884230527E-2</v>
-          </cell>
-          <cell r="D60">
-            <v>5.0575000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>10</v>
-          </cell>
-          <cell r="C61">
-            <v>8.455E-2</v>
-          </cell>
-          <cell r="D61">
-            <v>8.455E-2</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>15</v>
-          </cell>
-          <cell r="C62">
-            <v>0.1090258812654301</v>
-          </cell>
-          <cell r="D62">
-            <v>0.104701875</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>20</v>
-          </cell>
-          <cell r="C63">
-            <v>0.12778681712650472</v>
-          </cell>
-          <cell r="D63">
-            <v>0.11928000000000001</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>25</v>
-          </cell>
-          <cell r="C64">
-            <v>0.14208068295496926</v>
-          </cell>
-          <cell r="D64">
-            <v>0.13410625000000001</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>30</v>
-          </cell>
-          <cell r="C65">
-            <v>0.15321425263342481</v>
-          </cell>
-          <cell r="D65">
-            <v>0.14515</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>35</v>
-          </cell>
-          <cell r="C66">
-            <v>0.16229660381460778</v>
-          </cell>
-          <cell r="D66">
-            <v>0.1566275</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>40</v>
-          </cell>
-          <cell r="C67">
-            <v>0.16987987850507291</v>
-          </cell>
-          <cell r="D67">
-            <v>0.16534499999999999</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>45</v>
-          </cell>
-          <cell r="C68">
-            <v>0.17624847409544958</v>
-          </cell>
-          <cell r="D68">
-            <v>0.17457875</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>50</v>
-          </cell>
-          <cell r="C69">
-            <v>0.18170000000000006</v>
-          </cell>
-          <cell r="D69">
-            <v>0.1817</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ESPbase"/>
       <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
       <definedName name="crv_interpolation_2D"/>
-      <definedName name="getUFVersion"/>
+      <definedName name="unf_Version"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1529,7 +1357,7 @@
   <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,15 +1394,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>58</v>
       </c>
       <c r="F1" t="s">
         <v>59</v>
       </c>
       <c r="G1" t="str">
-        <f>[2]!getUFVersion()</f>
-        <v>7.11</v>
+        <f>[1]!unf_Version()</f>
+        <v>7.23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1599,12 +1427,12 @@
       <c r="A5" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="45" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="48"/>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1886,348 +1714,348 @@
       <c r="A44" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="26"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="48"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="28">
+      <c r="B45" s="25">
         <v>0.1</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="26">
         <v>1</v>
       </c>
-      <c r="D45" s="30">
+      <c r="D45" s="27">
         <v>3</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="26">
         <v>10</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="27">
         <v>50</v>
       </c>
-      <c r="G45" s="29">
+      <c r="G45" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="31">
+      <c r="A46" s="28">
         <v>300</v>
       </c>
       <c r="B46">
         <v>1.1609999999999999E-3</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="28">
         <v>1.1639999999999999E-2</v>
       </c>
       <c r="D46">
         <v>3.508E-2</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="28">
         <v>0.1169</v>
       </c>
       <c r="F46">
         <v>0.44119999999999998</v>
       </c>
-      <c r="G46" s="31">
+      <c r="G46" s="28">
         <v>0.61140000000000005</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="31">
+      <c r="A47" s="28">
         <v>400</v>
       </c>
       <c r="B47">
         <v>8.7100000000000003E-4</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="28">
         <v>8.6899999999999998E-3</v>
       </c>
       <c r="D47">
         <v>2.5950000000000001E-2</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="28">
         <v>8.455E-2</v>
       </c>
       <c r="F47">
         <v>0.33810000000000001</v>
       </c>
-      <c r="G47" s="31">
+      <c r="G47" s="28">
         <v>0.5091</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="31">
+      <c r="A48" s="28">
         <v>500</v>
       </c>
       <c r="B48">
         <v>6.96E-4</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="28">
         <v>6.94E-3</v>
       </c>
       <c r="D48">
         <v>2.068E-2</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="28">
         <v>6.7040000000000002E-2</v>
       </c>
       <c r="F48">
         <v>0.27600000000000002</v>
       </c>
-      <c r="G48" s="31">
+      <c r="G48" s="28">
         <v>0.43669999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="31">
+      <c r="A49" s="28">
         <v>600</v>
       </c>
       <c r="B49">
         <v>5.8E-4</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="28">
         <v>5.7800000000000004E-3</v>
       </c>
       <c r="D49">
         <v>1.7219999999999999E-2</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="28">
         <v>5.5800000000000002E-2</v>
       </c>
       <c r="F49">
         <v>0.23449999999999999</v>
       </c>
-      <c r="G49" s="31">
+      <c r="G49" s="28">
         <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="31">
+      <c r="A50" s="28">
         <v>700</v>
       </c>
       <c r="B50">
         <v>4.9700000000000005E-4</v>
       </c>
-      <c r="C50" s="31">
+      <c r="C50" s="28">
         <v>4.96E-3</v>
       </c>
       <c r="D50">
         <v>1.4760000000000001E-2</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="28">
         <v>4.7879999999999999E-2</v>
       </c>
       <c r="F50">
         <v>0.20449999999999999</v>
       </c>
-      <c r="G50" s="31">
+      <c r="G50" s="28">
         <v>0.34160000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="31">
+      <c r="A51" s="28">
         <v>800</v>
       </c>
       <c r="B51">
         <v>4.35E-4</v>
       </c>
-      <c r="C51" s="31">
+      <c r="C51" s="28">
         <v>4.3400000000000001E-3</v>
       </c>
       <c r="D51">
         <v>1.2919999999999999E-2</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="28">
         <v>4.1980000000000003E-2</v>
       </c>
       <c r="F51">
         <v>0.1817</v>
       </c>
-      <c r="G51" s="31">
+      <c r="G51" s="28">
         <v>0.30869999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="31">
+      <c r="A52" s="28">
         <v>900</v>
       </c>
       <c r="B52">
         <v>3.8699999999999997E-4</v>
       </c>
-      <c r="C52" s="31">
+      <c r="C52" s="28">
         <v>3.8600000000000001E-3</v>
       </c>
       <c r="D52">
         <v>1.149E-2</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="28">
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="F52">
         <v>0.16370000000000001</v>
       </c>
-      <c r="G52" s="31">
+      <c r="G52" s="28">
         <v>0.28179999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="31">
+      <c r="A53" s="28">
         <v>1000</v>
       </c>
       <c r="B53">
         <v>3.48E-4</v>
       </c>
-      <c r="C53" s="31">
+      <c r="C53" s="28">
         <v>3.47E-3</v>
       </c>
       <c r="D53">
         <v>1.035E-2</v>
       </c>
-      <c r="E53" s="31">
+      <c r="E53" s="28">
         <v>3.3730000000000003E-2</v>
       </c>
       <c r="F53">
         <v>0.14910000000000001</v>
       </c>
-      <c r="G53" s="31">
+      <c r="G53" s="28">
         <v>0.25950000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="31">
+      <c r="A54" s="28">
         <v>1100</v>
       </c>
       <c r="B54">
         <v>3.1700000000000001E-4</v>
       </c>
-      <c r="C54" s="31">
+      <c r="C54" s="28">
         <v>3.16E-3</v>
       </c>
       <c r="D54">
         <v>9.41E-3</v>
       </c>
-      <c r="E54" s="31">
+      <c r="E54" s="28">
         <v>3.073E-2</v>
       </c>
       <c r="F54">
         <v>0.13700000000000001</v>
       </c>
-      <c r="G54" s="31">
+      <c r="G54" s="28">
         <v>0.24060000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="31">
+      <c r="A55" s="28">
         <v>1200</v>
       </c>
       <c r="B55">
         <v>2.9E-4</v>
       </c>
-      <c r="C55" s="31">
+      <c r="C55" s="28">
         <v>2.8900000000000002E-3</v>
       </c>
       <c r="D55">
         <v>8.6300000000000005E-3</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E55" s="28">
         <v>2.8219999999999999E-2</v>
       </c>
       <c r="F55">
         <v>0.12670000000000001</v>
       </c>
-      <c r="G55" s="31">
+      <c r="G55" s="28">
         <v>0.22439999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="31">
+      <c r="A56" s="28">
         <v>1300</v>
       </c>
       <c r="B56">
         <v>2.6800000000000001E-4</v>
       </c>
-      <c r="C56" s="31">
+      <c r="C56" s="28">
         <v>2.6700000000000001E-3</v>
       </c>
       <c r="D56">
         <v>7.9699999999999997E-3</v>
       </c>
-      <c r="E56" s="31">
+      <c r="E56" s="28">
         <v>2.6089999999999999E-2</v>
       </c>
       <c r="F56">
         <v>0.1179</v>
       </c>
-      <c r="G56" s="31">
+      <c r="G56" s="28">
         <v>0.21029999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="31">
+      <c r="A57" s="28">
         <v>1400</v>
       </c>
       <c r="B57">
         <v>2.4899999999999998E-4</v>
       </c>
-      <c r="C57" s="31">
+      <c r="C57" s="28">
         <v>2.48E-3</v>
       </c>
       <c r="D57">
         <v>7.4099999999999999E-3</v>
       </c>
-      <c r="E57" s="31">
+      <c r="E57" s="28">
         <v>2.426E-2</v>
       </c>
       <c r="F57">
         <v>0.1103</v>
       </c>
-      <c r="G57" s="31">
+      <c r="G57" s="28">
         <v>0.19800000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="32">
+      <c r="A58" s="29">
         <v>1500</v>
       </c>
       <c r="B58" s="21">
         <v>2.32E-4</v>
       </c>
-      <c r="C58" s="32">
+      <c r="C58" s="29">
         <v>2.32E-3</v>
       </c>
       <c r="D58" s="21">
         <v>6.9199999999999999E-3</v>
       </c>
-      <c r="E58" s="32">
+      <c r="E58" s="29">
         <v>2.2679999999999999E-2</v>
       </c>
       <c r="F58" s="21">
         <v>0.1036</v>
       </c>
-      <c r="G58" s="32">
+      <c r="G58" s="29">
         <v>0.187</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D61" s="31" t="s">
         <v>41</v>
       </c>
       <c r="F61" t="s">
@@ -2244,301 +2072,301 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="35">
+      <c r="A62" s="32">
         <v>1</v>
       </c>
-      <c r="B62" s="36">
+      <c r="B62" s="33">
         <v>300</v>
       </c>
-      <c r="C62" s="37">
-        <f t="array" ref="C62:C72">[2]!crv_interpolation_2D($B$45:$G$45,$A$46:$A$58,$B$46:$G$58,$A$62:$B$72,,1)</f>
+      <c r="C62" s="34">
+        <f t="array" ref="C62:C72">[1]!crv_interpolation_2D($B$45:$G$45,$A$46:$A$58,$B$46:$G$58,$A$62:$B$72,,1)</f>
         <v>1.1640000000000001E-2</v>
       </c>
-      <c r="D62" s="40">
-        <f t="array" ref="D62:D72">[2]!crv_interpolation_2D($B$45:$G$45,$A$46:$A$58,$B$46:$G$58,$A$62:$B$72)</f>
+      <c r="D62" s="37">
+        <f t="array" ref="D62:D72">[1]!crv_interpolation_2D($B$45:$G$45,$A$46:$A$58,$B$46:$G$58,$A$62:$B$72)</f>
         <v>1.1639999999999999E-2</v>
       </c>
-      <c r="F62" s="37">
-        <f t="array" ref="F62:I72">[2]!crv_interpolation_2D($B$45:$G$45,$A$46:$A$58,$B$46:$G$58,$A$62:$B$72,2)</f>
+      <c r="F62" s="34">
+        <f t="array" ref="F62:I72">[1]!crv_interpolation_2D($B$45:$G$45,$A$46:$A$58,$B$46:$G$58,$A$62:$B$72,2)</f>
         <v>1.1639999999999999E-2</v>
       </c>
-      <c r="G62" s="43">
+      <c r="G62" s="40">
         <v>1.1639999999999999E-2</v>
       </c>
-      <c r="H62" s="44">
+      <c r="H62" s="41">
         <v>1.1639999999999999E-2</v>
       </c>
-      <c r="I62" s="44">
+      <c r="I62" s="41">
         <v>1.1639999999999999E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="45">
+      <c r="A63" s="42">
         <v>5</v>
       </c>
-      <c r="B63" s="31">
+      <c r="B63" s="28">
         <f>+B62+50</f>
         <v>350</v>
       </c>
-      <c r="C63" s="38">
+      <c r="C63" s="35">
         <v>4.9895653884230527E-2</v>
       </c>
-      <c r="D63" s="41">
+      <c r="D63" s="38">
         <v>5.0575000000000002E-2</v>
       </c>
-      <c r="F63" s="43">
+      <c r="F63" s="40">
         <v>5.0575000000000002E-2</v>
       </c>
-      <c r="G63" s="43">
+      <c r="G63" s="40">
         <v>5.0575000000000002E-2</v>
       </c>
-      <c r="H63" s="44">
+      <c r="H63" s="41">
         <v>5.0575000000000002E-2</v>
       </c>
-      <c r="I63" s="44">
+      <c r="I63" s="41">
         <v>5.0575000000000002E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="45">
+      <c r="A64" s="42">
         <v>10</v>
       </c>
-      <c r="B64" s="31">
+      <c r="B64" s="28">
         <f t="shared" ref="B64:B72" si="0">+B63+50</f>
         <v>400</v>
       </c>
-      <c r="C64" s="38">
+      <c r="C64" s="35">
         <v>8.455E-2</v>
       </c>
-      <c r="D64" s="41">
+      <c r="D64" s="38">
         <v>8.455E-2</v>
       </c>
-      <c r="F64" s="43">
+      <c r="F64" s="40">
         <v>8.455E-2</v>
       </c>
-      <c r="G64" s="43">
+      <c r="G64" s="40">
         <v>8.455E-2</v>
       </c>
-      <c r="H64" s="44">
+      <c r="H64" s="41">
         <v>8.455E-2</v>
       </c>
-      <c r="I64" s="44">
+      <c r="I64" s="41">
         <v>8.455E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="45">
+      <c r="A65" s="42">
         <v>15</v>
       </c>
-      <c r="B65" s="31">
+      <c r="B65" s="28">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="C65" s="38">
+      <c r="C65" s="35">
         <v>0.1090258812654301</v>
       </c>
-      <c r="D65" s="41">
+      <c r="D65" s="38">
         <v>0.104701875</v>
       </c>
-      <c r="F65" s="43">
+      <c r="F65" s="40">
         <v>0.104701875</v>
       </c>
-      <c r="G65" s="43">
+      <c r="G65" s="40">
         <v>0.104701875</v>
       </c>
-      <c r="H65" s="44">
+      <c r="H65" s="41">
         <v>0.104701875</v>
       </c>
-      <c r="I65" s="44">
+      <c r="I65" s="41">
         <v>0.104701875</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="45">
+      <c r="A66" s="42">
         <v>20</v>
       </c>
-      <c r="B66" s="31">
+      <c r="B66" s="28">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="C66" s="38">
+      <c r="C66" s="35">
         <v>0.12778681712650472</v>
       </c>
-      <c r="D66" s="41">
+      <c r="D66" s="38">
         <v>0.11928000000000001</v>
       </c>
-      <c r="F66" s="43">
+      <c r="F66" s="40">
         <v>0.11928000000000001</v>
       </c>
-      <c r="G66" s="43">
+      <c r="G66" s="40">
         <v>0.11928000000000001</v>
       </c>
-      <c r="H66" s="44">
+      <c r="H66" s="41">
         <v>0.11928000000000001</v>
       </c>
-      <c r="I66" s="44">
+      <c r="I66" s="41">
         <v>0.11928000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="45">
+      <c r="A67" s="42">
         <v>25</v>
       </c>
-      <c r="B67" s="31">
+      <c r="B67" s="28">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="C67" s="38">
+      <c r="C67" s="35">
         <v>0.14208068295496926</v>
       </c>
-      <c r="D67" s="41">
+      <c r="D67" s="38">
         <v>0.13410625000000001</v>
       </c>
-      <c r="F67" s="43">
+      <c r="F67" s="40">
         <v>0.13410625000000001</v>
       </c>
-      <c r="G67" s="43">
+      <c r="G67" s="40">
         <v>0.13410625000000001</v>
       </c>
-      <c r="H67" s="44">
+      <c r="H67" s="41">
         <v>0.13410625000000001</v>
       </c>
-      <c r="I67" s="44">
+      <c r="I67" s="41">
         <v>0.13410625000000001</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="45">
+      <c r="A68" s="42">
         <v>30</v>
       </c>
-      <c r="B68" s="31">
+      <c r="B68" s="28">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="C68" s="38">
+      <c r="C68" s="35">
         <v>0.15321425263342481</v>
       </c>
-      <c r="D68" s="41">
+      <c r="D68" s="38">
         <v>0.14515</v>
       </c>
-      <c r="F68" s="43">
+      <c r="F68" s="40">
         <v>0.14515</v>
       </c>
-      <c r="G68" s="43">
+      <c r="G68" s="40">
         <v>0.14515</v>
       </c>
-      <c r="H68" s="44">
+      <c r="H68" s="41">
         <v>0.14515</v>
       </c>
-      <c r="I68" s="44">
+      <c r="I68" s="41">
         <v>0.14515</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="45">
+      <c r="A69" s="42">
         <v>35</v>
       </c>
-      <c r="B69" s="31">
+      <c r="B69" s="28">
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
-      <c r="C69" s="38">
+      <c r="C69" s="35">
         <v>0.16229660381460778</v>
       </c>
-      <c r="D69" s="41">
+      <c r="D69" s="38">
         <v>0.1566275</v>
       </c>
-      <c r="F69" s="43">
+      <c r="F69" s="40">
         <v>0.1566275</v>
       </c>
-      <c r="G69" s="43">
+      <c r="G69" s="40">
         <v>0.1566275</v>
       </c>
-      <c r="H69" s="44">
+      <c r="H69" s="41">
         <v>0.1566275</v>
       </c>
-      <c r="I69" s="44">
+      <c r="I69" s="41">
         <v>0.1566275</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="45">
+      <c r="A70" s="42">
         <v>40</v>
       </c>
-      <c r="B70" s="31">
+      <c r="B70" s="28">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="C70" s="38">
+      <c r="C70" s="35">
         <v>0.16987987850507291</v>
       </c>
-      <c r="D70" s="41">
+      <c r="D70" s="38">
         <v>0.16534499999999999</v>
       </c>
-      <c r="F70" s="43">
+      <c r="F70" s="40">
         <v>0.16534499999999999</v>
       </c>
-      <c r="G70" s="43">
+      <c r="G70" s="40">
         <v>0.16534499999999999</v>
       </c>
-      <c r="H70" s="44">
+      <c r="H70" s="41">
         <v>0.16534499999999999</v>
       </c>
-      <c r="I70" s="44">
+      <c r="I70" s="41">
         <v>0.16534499999999999</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="45">
+      <c r="A71" s="42">
         <v>45</v>
       </c>
-      <c r="B71" s="31">
+      <c r="B71" s="28">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="C71" s="38">
+      <c r="C71" s="35">
         <v>0.17624847409544958</v>
       </c>
-      <c r="D71" s="41">
+      <c r="D71" s="38">
         <v>0.17457875</v>
       </c>
-      <c r="F71" s="43">
+      <c r="F71" s="40">
         <v>0.17457875</v>
       </c>
-      <c r="G71" s="43">
+      <c r="G71" s="40">
         <v>0.17457875</v>
       </c>
-      <c r="H71" s="44">
+      <c r="H71" s="41">
         <v>0.17457875</v>
       </c>
-      <c r="I71" s="44">
+      <c r="I71" s="41">
         <v>0.17457875</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="46">
+      <c r="A72" s="43">
         <v>50</v>
       </c>
-      <c r="B72" s="32">
+      <c r="B72" s="29">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="C72" s="39">
+      <c r="C72" s="36">
         <v>0.18170000000000006</v>
       </c>
-      <c r="D72" s="42">
+      <c r="D72" s="39">
         <v>0.1817</v>
       </c>
-      <c r="F72" s="43">
+      <c r="F72" s="40">
         <v>0.1817</v>
       </c>
-      <c r="G72" s="43">
+      <c r="G72" s="40">
         <v>0.1817</v>
       </c>
-      <c r="H72" s="44">
+      <c r="H72" s="41">
         <v>0.1817</v>
       </c>
-      <c r="I72" s="44">
+      <c r="I72" s="41">
         <v>0.1817</v>
       </c>
     </row>

--- a/examples/ex002.Interpolation2D.xlsx
+++ b/examples/ex002.Interpolation2D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B5DFD7-D376-47F6-8A3F-F4AC51BB2417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11090025-D0C3-49ED-9E64-B06668609860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34185" yWindow="4890" windowWidth="28800" windowHeight="15435" xr2:uid="{0F6AF6A5-E8D5-4D5B-9C77-42921EABD3C2}"/>
+    <workbookView xWindow="-34365" yWindow="2955" windowWidth="28410" windowHeight="15210" xr2:uid="{0F6AF6A5-E8D5-4D5B-9C77-42921EABD3C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Interp2D" sheetId="2" r:id="rId1"/>
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/examples/ex002.Interpolation2D.xlsx
+++ b/examples/ex002.Interpolation2D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11090025-D0C3-49ED-9E64-B06668609860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BE00C8-1FC9-44D1-B60C-BCE0C75FDED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34365" yWindow="2955" windowWidth="28410" windowHeight="15210" xr2:uid="{0F6AF6A5-E8D5-4D5B-9C77-42921EABD3C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{0F6AF6A5-E8D5-4D5B-9C77-42921EABD3C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Interp2D" sheetId="2" r:id="rId1"/>
@@ -1356,44 +1356,44 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>58</v>
       </c>
@@ -1402,20 +1402,20 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!unf_Version()</f>
-        <v>7.23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1431,10 +1431,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D6" s="45"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
@@ -1442,20 +1442,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1487,13 +1487,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
@@ -1509,18 +1509,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -1528,25 +1528,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="10" t="s">
         <v>24</v>
@@ -1559,7 +1559,7 @@
       <c r="F24" s="12"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>26</v>
       </c>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>29</v>
       </c>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>32</v>
       </c>
@@ -1599,7 +1599,7 @@
       <c r="G27" s="14"/>
       <c r="P27" s="15"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>35</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="G28" s="14"/>
       <c r="P28" s="15"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>38</v>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="G29" s="14"/>
       <c r="P29" s="15"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
       <c r="B30" s="2"/>
       <c r="C30" s="14"/>
@@ -1636,7 +1636,7 @@
       <c r="G30" s="14"/>
       <c r="P30" s="15"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
@@ -1646,10 +1646,10 @@
       <c r="G31" s="19"/>
       <c r="P31" s="15"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P32" s="15"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>53</v>
       </c>
@@ -1658,59 +1658,59 @@
       </c>
       <c r="P33" s="15"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>57</v>
       </c>
       <c r="P34" s="15"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="P35" s="15"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="7"/>
       <c r="P37" s="15"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="2"/>
       <c r="P38" s="15"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="8"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="8"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
         <v>47</v>
       </c>
@@ -1723,7 +1723,7 @@
       <c r="F44" s="47"/>
       <c r="G44" s="48"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
         <v>49</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="28">
         <v>300</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>0.61140000000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="28">
         <v>400</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>0.5091</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="28">
         <v>500</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>0.43669999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="28">
         <v>600</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="28">
         <v>700</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>0.34160000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="28">
         <v>800</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>0.30869999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="28">
         <v>900</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>0.28179999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="28">
         <v>1000</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>0.25950000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="28">
         <v>1100</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>0.24060000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="28">
         <v>1200</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>0.22439999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="28">
         <v>1300</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>0.21029999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="28">
         <v>1400</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="29">
         <v>1500</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="30" t="s">
         <v>50</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="32">
         <v>1</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>1.1639999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="42">
         <v>5</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>5.0575000000000002E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="42">
         <v>10</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>8.455E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="42">
         <v>15</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>0.104701875</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="42">
         <v>20</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>0.11928000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="42">
         <v>25</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>0.13410625000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="42">
         <v>30</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>0.14515</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="42">
         <v>35</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>0.1566275</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="42">
         <v>40</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>0.16534499999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="42">
         <v>45</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>0.17457875</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="43">
         <v>50</v>
       </c>

--- a/examples/ex002.Interpolation2D.xlsx
+++ b/examples/ex002.Interpolation2D.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BE00C8-1FC9-44D1-B60C-BCE0C75FDED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E9F881-94C5-4D39-BF46-8F96FDFBFA8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{0F6AF6A5-E8D5-4D5B-9C77-42921EABD3C2}"/>
   </bookViews>
@@ -1356,8 +1356,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/examples/ex002.Interpolation2D.xlsx
+++ b/examples/ex002.Interpolation2D.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E9F881-94C5-4D39-BF46-8F96FDFBFA8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C48197F-90C4-42EA-826D-164535E20A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{0F6AF6A5-E8D5-4D5B-9C77-42921EABD3C2}"/>
   </bookViews>
@@ -1356,8 +1356,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!unf_Version()</f>
-        <v>7.26</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
